--- a/biology/Histoire de la zoologie et de la botanique/Hutch/Hutch..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hutch/Hutch..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Hutchinson est un botaniste britannique, né le 7 avril 1884 à Blindburn, Wark on Tyne et mort le 2 septembre 1972 à Kew.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait toute sa carrière aux Jardins botaniques royaux de Kew, d'abord comme jardinier stagiaire en 1904, puis à l'herbarium dès 1905, d'abord au département de l'Inde, puis de l'Afrique tropicale. Il est en fonction à la section botanique indienne (1915-1919) puis à la section africaine, jusqu'en 1936. Il est nommé conservateur de Kew en 1936, où il gère les collections de botanique économique et occupe cette fonction jusqu'à sa retraite en 1948[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait toute sa carrière aux Jardins botaniques royaux de Kew, d'abord comme jardinier stagiaire en 1904, puis à l'herbarium dès 1905, d'abord au département de l'Inde, puis de l'Afrique tropicale. Il est en fonction à la section botanique indienne (1915-1919) puis à la section africaine, jusqu'en 1936. Il est nommé conservateur de Kew en 1936, où il gère les collections de botanique économique et occupe cette fonction jusqu'à sa retraite en 1948. 
 Il est surtout connu pour sa connaissance des spermatophytes. Il a fait deux expéditions botaniques en Afrique du Sud, dont il rend compte dans son livre A Botanist in Southern Africa, la première d'août 1928 à avril 1929, la seconde de juin 1930 à septembre 1930.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1934 : doctorat honoris causa, Université de Saint Andrews
 1937 : médaille commémorative Veitch
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« A new phylogenetic classification of the monocotyledons », Proceedings of The Zesde Internationaal Botanisch Congres, Amsterdam, 2–7 September 1935, vol. II, 1936, p. 129–131
 Common Wild Flowers, 1945
